--- a/投資.xlsx
+++ b/投資.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>K線</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,31 @@
 日K線：
 週K線：
 月K線：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jihsun.com.tw/md/event/jsun_school/stock7.html</t>
+  </si>
+  <si>
+    <t>https://smart.businessweekly.com.tw/Reading/Default.aspx</t>
+  </si>
+  <si>
+    <t>日盛理財學園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD指標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡單移動平均線(Simple Moving Average, SMA)，又稱為移動平均線(MA)。N日移動平均線＝N日收盤價之和／N
+若股價向上穿越MA線，代表股市走強，為買進訊號
+若股價向下穿越MA線，代表股市走弱，為賣出訊號
+常用均線：5日均線(短期、週線)、10均線(短期、雙週線)、20均線(中期)、60均線(中期、季線)、120均線(長期、半年線)、240均線(長期、年線)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="104.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="135.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,6 +536,19 @@
       </c>
       <c r="B9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -521,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,12 +570,23 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/投資.xlsx
+++ b/投資.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="股票技術" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
